--- a/config/excel/SkillSummon.xlsx
+++ b/config/excel/SkillSummon.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D3350A-B4AF-42D8-8B50-8F9E00A3B7AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FC6CFF-0C7A-4DCB-9CAA-13C6FE471880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BattleSummon" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillSummon" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{EC292899-4156-49F1-A5E0-58D239531EC2}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{EC292899-4156-49F1-A5E0-58D239531EC2}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,11 +184,6 @@
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-场景虚拟物
-2-底面附着物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -275,6 +270,32 @@
   <si>
     <t>配置timelineID
 决定召唤物的生效逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-场景虚拟物
+2-怪物行动单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性是否继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-不继承
+1-继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +468,64 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -641,22 +719,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:O17" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="C1:O17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="召唤物ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="召唤物名称" dataDxfId="11"/>
-    <tableColumn id="44" xr3:uid="{CC429943-D8D5-4762-A62F-542FABF7B3C1}" name="生成持续表现" dataDxfId="10"/>
-    <tableColumn id="45" xr3:uid="{3E30E374-600C-487C-920B-274F93E16D6C}" name="结束表现" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{B67DCE15-4739-43CF-BCE9-C48E0588337C}" name="召唤物图标" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{F7F907C6-9DC6-42FB-8B96-8611CAABC1C6}" name="持续时间" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{8B9A864D-6B0D-41B2-9A48-9FECE2C3610A}" name="技能间隔" dataDxfId="6"/>
-    <tableColumn id="46" xr3:uid="{BBE84E6E-610E-4BE5-933F-7E13A328A2A0}" name="召唤物类型" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{3EB93FB2-DF51-43F5-98A8-824843680482}" name="阵营" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{6F3B14CC-E445-4019-BD0C-B8DA3878A450}" name="召唤物效果" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{54FD0962-A02A-454A-A4F5-0E01DE37F05D}" name="数量上限" dataDxfId="2"/>
-    <tableColumn id="26" xr3:uid="{C3C042A7-20E1-4B11-AB52-E4BF6405203A}" name="死亡清除" dataDxfId="1"/>
-    <tableColumn id="28" xr3:uid="{9AD26F36-8D58-4DDC-862F-8900AB7FCCF2}" name="清除条件" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:R17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="C1:R17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="召唤物ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="召唤物名称" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{C356F192-6EC5-46FF-8D5B-32F6629C706F}" name="属性是否继承" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{408862EC-333B-40BA-B0DD-6D0F5287F002}" name="继承属性" dataDxfId="0"/>
+    <tableColumn id="44" xr3:uid="{CC429943-D8D5-4762-A62F-542FABF7B3C1}" name="生成持续表现" dataDxfId="13"/>
+    <tableColumn id="45" xr3:uid="{3E30E374-600C-487C-920B-274F93E16D6C}" name="结束表现" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{B67DCE15-4739-43CF-BCE9-C48E0588337C}" name="召唤物图标" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{F7F907C6-9DC6-42FB-8B96-8611CAABC1C6}" name="持续时间" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{8B9A864D-6B0D-41B2-9A48-9FECE2C3610A}" name="技能间隔" dataDxfId="9"/>
+    <tableColumn id="46" xr3:uid="{BBE84E6E-610E-4BE5-933F-7E13A328A2A0}" name="召唤物类型" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C887AE1B-C929-4B9F-AC7F-0C32ABA20138}" name="模型半径" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{3EB93FB2-DF51-43F5-98A8-824843680482}" name="阵营" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{6F3B14CC-E445-4019-BD0C-B8DA3878A450}" name="召唤物效果" dataDxfId="6"/>
+    <tableColumn id="25" xr3:uid="{54FD0962-A02A-454A-A4F5-0E01DE37F05D}" name="数量上限" dataDxfId="5"/>
+    <tableColumn id="26" xr3:uid="{C3C042A7-20E1-4B11-AB52-E4BF6405203A}" name="死亡清除" dataDxfId="4"/>
+    <tableColumn id="28" xr3:uid="{9AD26F36-8D58-4DDC-862F-8900AB7FCCF2}" name="清除条件" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -925,23 +1006,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="10.625" style="2"/>
-    <col min="10" max="10" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="2"/>
-    <col min="13" max="13" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="2"/>
+    <col min="1" max="11" width="10.625" style="2"/>
+    <col min="12" max="12" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="2"/>
+    <col min="15" max="15" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -955,70 +1036,83 @@
         <v>11</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1028,41 +1122,44 @@
       <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R3" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1072,41 +1169,44 @@
       <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1123,8 +1223,11 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1134,98 +1237,115 @@
       <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="M6" s="10" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
-        <v>1010011</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="2">
+      <c r="J7" s="2">
+        <v>60</v>
+      </c>
+      <c r="K7" s="2">
         <v>3</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="N17" s="11"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="Q17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillSummon.xlsx
+++ b/config/excel/SkillSummon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FC6CFF-0C7A-4DCB-9CAA-13C6FE471880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A12A74-C5F6-4358-93BC-072B2DC92C4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillSummon" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{EC292899-4156-49F1-A5E0-58D239531EC2}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{EC292899-4156-49F1-A5E0-58D239531EC2}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,24 +188,6 @@
   </si>
   <si>
     <t>int32</t>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-友军
-2-敌军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>camp</t>
-  </si>
-  <si>
-    <t>阵营</t>
-  </si>
-  <si>
-    <t>阵营</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +307,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -429,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -464,11 +455,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -509,6 +521,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
@@ -528,21 +546,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
@@ -559,12 +562,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -719,25 +716,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:R17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="C1:R17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="召唤物ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="召唤物名称" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{C356F192-6EC5-46FF-8D5B-32F6629C706F}" name="属性是否继承" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{408862EC-333B-40BA-B0DD-6D0F5287F002}" name="继承属性" dataDxfId="0"/>
-    <tableColumn id="44" xr3:uid="{CC429943-D8D5-4762-A62F-542FABF7B3C1}" name="生成持续表现" dataDxfId="13"/>
-    <tableColumn id="45" xr3:uid="{3E30E374-600C-487C-920B-274F93E16D6C}" name="结束表现" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{B67DCE15-4739-43CF-BCE9-C48E0588337C}" name="召唤物图标" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{F7F907C6-9DC6-42FB-8B96-8611CAABC1C6}" name="持续时间" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{8B9A864D-6B0D-41B2-9A48-9FECE2C3610A}" name="技能间隔" dataDxfId="9"/>
-    <tableColumn id="46" xr3:uid="{BBE84E6E-610E-4BE5-933F-7E13A328A2A0}" name="召唤物类型" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C887AE1B-C929-4B9F-AC7F-0C32ABA20138}" name="模型半径" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{3EB93FB2-DF51-43F5-98A8-824843680482}" name="阵营" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{6F3B14CC-E445-4019-BD0C-B8DA3878A450}" name="召唤物效果" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{54FD0962-A02A-454A-A4F5-0E01DE37F05D}" name="数量上限" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{C3C042A7-20E1-4B11-AB52-E4BF6405203A}" name="死亡清除" dataDxfId="4"/>
-    <tableColumn id="28" xr3:uid="{9AD26F36-8D58-4DDC-862F-8900AB7FCCF2}" name="清除条件" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:Q17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="C1:Q17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="召唤物ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="召唤物名称" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{C356F192-6EC5-46FF-8D5B-32F6629C706F}" name="属性是否继承" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{408862EC-333B-40BA-B0DD-6D0F5287F002}" name="继承属性" dataDxfId="11"/>
+    <tableColumn id="44" xr3:uid="{CC429943-D8D5-4762-A62F-542FABF7B3C1}" name="生成持续表现" dataDxfId="10"/>
+    <tableColumn id="45" xr3:uid="{3E30E374-600C-487C-920B-274F93E16D6C}" name="结束表现" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{B67DCE15-4739-43CF-BCE9-C48E0588337C}" name="召唤物图标" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{F7F907C6-9DC6-42FB-8B96-8611CAABC1C6}" name="持续时间" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{8B9A864D-6B0D-41B2-9A48-9FECE2C3610A}" name="技能间隔" dataDxfId="6"/>
+    <tableColumn id="46" xr3:uid="{BBE84E6E-610E-4BE5-933F-7E13A328A2A0}" name="召唤物类型" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C887AE1B-C929-4B9F-AC7F-0C32ABA20138}" name="模型半径" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{6F3B14CC-E445-4019-BD0C-B8DA3878A450}" name="召唤物效果" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{54FD0962-A02A-454A-A4F5-0E01DE37F05D}" name="数量上限" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{C3C042A7-20E1-4B11-AB52-E4BF6405203A}" name="死亡清除" dataDxfId="1"/>
+    <tableColumn id="28" xr3:uid="{9AD26F36-8D58-4DDC-862F-8900AB7FCCF2}" name="清除条件" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1006,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1017,12 +1013,11 @@
     <col min="1" max="11" width="10.625" style="2"/>
     <col min="12" max="12" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="2"/>
-    <col min="15" max="15" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.625" style="2"/>
+    <col min="14" max="14" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1036,10 +1031,10 @@
         <v>11</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>24</v>
@@ -1060,31 +1055,28 @@
         <v>33</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>21</v>
@@ -1093,26 +1085,23 @@
         <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>37</v>
+      <c r="N2" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1143,23 +1132,20 @@
         <v>34</v>
       </c>
       <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="14" t="s">
         <v>38</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1190,23 +1176,20 @@
         <v>33</v>
       </c>
       <c r="M4" s="10"/>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1221,13 +1204,12 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1255,28 +1237,25 @@
         <v>32</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -1289,53 +1268,50 @@
       <c r="K7" s="2">
         <v>3</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
+        <v>3</v>
+      </c>
+      <c r="P7" s="11">
         <v>1</v>
       </c>
-      <c r="P7" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
-      <c r="Q8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
-      <c r="Q9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
-      <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
-      <c r="Q12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
-      <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
-      <c r="Q14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
-      <c r="Q16" s="11"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1345,7 +1321,7 @@
       <c r="I17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="Q17" s="11"/>
+      <c r="P17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
